--- a/regionseng/12/transport and communication/transport and storage.xlsx
+++ b/regionseng/12/transport and communication/transport and storage.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -272,6 +272,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -579,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P1"/>
@@ -592,27 +596,27 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-    </row>
-    <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+    </row>
+    <row r="3" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="2">
         <v>2006</v>
@@ -659,8 +663,14 @@
       <c r="P3" s="29">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="29">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -709,8 +719,14 @@
       <c r="P4" s="30">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="30">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="R4" s="30">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -759,8 +775,14 @@
       <c r="P5" s="30">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="30">
+        <v>36.1</v>
+      </c>
+      <c r="R5" s="30">
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
@@ -809,8 +831,14 @@
       <c r="P6" s="30">
         <v>714</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="30">
+        <v>868</v>
+      </c>
+      <c r="R6" s="30">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -859,8 +887,14 @@
       <c r="P7" s="30">
         <v>403</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="30">
+        <v>413</v>
+      </c>
+      <c r="R7" s="30">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
@@ -909,8 +943,14 @@
       <c r="P8" s="30">
         <v>726</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="32">
+        <v>953.3</v>
+      </c>
+      <c r="R8" s="32">
+        <v>950.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
@@ -959,8 +999,14 @@
       <c r="P9" s="30">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="30">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R9" s="30">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
@@ -1009,8 +1055,14 @@
       <c r="P10" s="30">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="30">
+        <v>4.8</v>
+      </c>
+      <c r="R10" s="30">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1111,14 @@
       <c r="P11" s="30">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="33">
+        <v>19</v>
+      </c>
+      <c r="R11" s="33">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
@@ -1109,8 +1167,14 @@
       <c r="P12" s="30">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="R12" s="30">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
@@ -1159,8 +1223,14 @@
       <c r="P13" s="30">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="30">
+        <v>21.4</v>
+      </c>
+      <c r="R13" s="30">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1279,14 @@
       <c r="P14" s="31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="R14" s="32">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>

--- a/regionseng/12/transport and communication/transport and storage.xlsx
+++ b/regionseng/12/transport and communication/transport and storage.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3A438D-7611-4D6C-9ED9-9C8E5C2325AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="22635" windowHeight="8010"/>
+    <workbookView xWindow="15945" yWindow="2490" windowWidth="14265" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -197,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -206,7 +207,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -214,27 +215,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,16 +248,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -372,6 +361,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -407,6 +413,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,11 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,28 +619,28 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-    </row>
-    <row r="3" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+    </row>
+    <row r="3" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
       <c r="B3" s="2">
         <v>2006</v>
       </c>
@@ -648,645 +671,681 @@
       <c r="K3" s="4">
         <v>2015</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="3">
         <v>2016</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="3">
         <v>2017</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="14">
         <v>2018</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="14">
         <v>2019</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="25">
         <v>2020</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="25">
         <v>2021</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="25">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="S3" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>4.0612700000000004</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="16">
         <v>2.2963100000000001</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="16">
         <v>2.7661099999999998</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <v>1.0145</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="16">
         <v>1.93276</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="16">
         <v>9.5013199999999998</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <v>7.3</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="18">
         <v>17.290400000000002</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="18">
         <v>11.790799999999999</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="18">
         <v>13.6</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="16">
         <v>18.598040000000001</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="16">
         <v>29.157630000000001</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="13">
         <v>30.2</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="26">
         <v>39.9</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="26">
         <v>35.799999999999997</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="26">
         <v>124.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="S4" s="26">
+        <v>130.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>5.2610099999999997</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>2.2963100000000001</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>2.0670700000000002</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>1.0145</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="16">
         <v>1.9327700000000001</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="16">
         <v>9.1050599999999999</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="19">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="19">
         <v>7.3</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="20">
         <v>17.3</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <v>13.2</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <v>13.5</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="16">
         <v>18.07132</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="16">
         <v>29.619420000000002</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="13">
         <v>30.2</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="26">
         <v>39.9</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="26">
         <v>36.1</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="26">
         <v>123.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="S5" s="29">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>400</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>471.5</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>281</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>192.91482999999999</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>291.66667000000001</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="21">
         <v>612.55079999999998</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>351</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <v>282</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <v>366</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <v>716</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <v>312</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="21">
         <v>567.33501000000001</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="21">
         <v>752.46006999999997</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="13">
         <v>885</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="26">
         <v>714</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="26">
         <v>868</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="26">
         <v>918</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="S6" s="26">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>343</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="21">
         <v>469.5</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>274</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>167.5</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <v>276.33334000000002</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <v>572.60127</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>242</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="17">
         <v>201</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="20">
         <v>331</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="20">
         <v>646</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <v>228</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="21">
         <v>399.93596000000002</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="21">
         <v>412.83850999999999</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="13">
         <v>441</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="26">
         <v>403</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="26">
         <v>413</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="26">
         <v>574</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="S7" s="26">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>212.961491</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>168.65543099999999</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="16">
         <v>171.301399</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <v>143.94004899999999</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="16">
         <v>186.912038</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="16">
         <v>215.751328</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>215.6</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="17">
         <v>486.2</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="18">
         <v>372.6</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="18">
         <v>273.5</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="20">
         <v>749.5</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="16">
         <v>749.60593700000004</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="16">
         <v>752.78062</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="13">
         <v>534.5</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="26">
         <v>726</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="28">
         <v>953.3</v>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="28">
         <v>950.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="S8" s="28">
+        <v>1179.0999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>3.3277100000000002</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <v>0.94689000000000001</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="16">
         <v>0.93854000000000004</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <v>0.38983000000000001</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="16">
         <v>0.63902000000000003</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="16">
         <v>3.9202400000000002</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <v>1.8</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="17">
         <v>2.7</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="18">
         <v>11.380100000000001</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="18">
         <v>9.2781000000000002</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <v>6.9</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="16">
         <v>8.8408599999999993</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="16">
         <v>19.910889999999998</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="13">
         <v>15.4</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="26">
         <v>16.3</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="26">
         <v>17.100000000000001</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="26">
         <v>80.900000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="S9" s="26">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>1.05189</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>1.24315</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>0.56323999999999996</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>0.28932000000000002</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="16">
         <v>0.61980000000000002</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="16">
         <v>1.48247</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <v>0.6</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="17">
         <v>1.2</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="18">
         <v>1.4798</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="18">
         <v>2.1190000000000002</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <v>2.1</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="16">
         <v>3.5975199999999998</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="16">
         <v>3.72933</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="13">
         <v>2.9</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="26">
         <v>3.5</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="26">
         <v>4.8</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="26">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="S10" s="26">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="16">
         <v>1.93329</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="16">
         <v>1.34944</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <v>1.1285400000000001</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <v>0.62468999999999997</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="16">
         <v>1.29375</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="16">
         <v>5.1848000000000001</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="17">
         <v>2.8</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="17">
         <v>4.7</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="18">
         <v>5.9121999999999995</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="18">
         <v>3.8763000000000001</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="18">
         <v>6.6</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="16">
         <v>9.2305100000000007</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="16">
         <v>9.7085799999999995</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="13">
         <v>14.8</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="26">
         <v>23.6</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="29">
         <v>19</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="29">
         <v>42.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="S11" s="29">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>0.14083000000000001</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <v>0.22498000000000001</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <v>0.26912000000000003</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="16">
         <v>0.21726999999999999</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="16">
         <v>0.43603999999999998</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>0.3</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <v>0.9</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="18">
         <v>0.61429999999999996</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="18">
         <v>0.48969999999999997</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <v>0.3</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="16">
         <v>0.59792999999999996</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="16">
         <v>0.81222000000000005</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="13">
         <v>0.1</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="26">
         <v>0.6</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="26">
         <v>0.7</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="26">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="S12" s="26">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="16">
         <v>0.90842999999999996</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="16">
         <v>1.44903</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="16">
         <v>0.26064999999999999</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="16">
         <v>0.76473999999999998</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <v>3.8559299999999999</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>1.4</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="17">
         <v>3.2</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="19">
         <v>11.084</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="19">
         <v>9.1646999999999998</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="17">
         <v>6.1</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="16">
         <v>7.2433899999999998</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="16">
         <v>20.116499999999998</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="13">
         <v>14.6</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="26">
         <v>16.100000000000001</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="26">
         <v>21.4</v>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="26">
         <v>83.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="S13" s="26">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="16">
         <v>0</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="16">
         <v>0.73441999999999996</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>0</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="16">
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="16">
         <v>0.45644000000000001</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="19">
         <v>0</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="20">
         <v>0.2</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="16">
         <v>0.52524000000000004</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="16">
         <v>0.26430999999999999</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="13">
         <v>0.2</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14" s="28">
         <v>4.2</v>
       </c>
-      <c r="R14" s="32">
+      <c r="R14" s="28">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S14" s="28">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -1297,73 +1356,73 @@
         <v>6</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="13"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C28" s="13"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C29" s="13"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C30" s="13"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C31" s="13"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C32" s="13"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="3:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C33" s="13"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
